--- a/biology/Neurosciences/Carla_Shatz/Carla_Shatz.xlsx
+++ b/biology/Neurosciences/Carla_Shatz/Carla_Shatz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carla Jo Shatz, née en 1947, est une neurobiologiste américaine[1]. Elle fut la première femme a passer son doctorat en neurobiologie à l'Harvard Medical School en 1976[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carla Jo Shatz, née en 1947, est une neurobiologiste américaine. Elle fut la première femme a passer son doctorat en neurobiologie à l'Harvard Medical School en 1976. 
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ses travaux visent à comprendre comment les circuits neuronaux  précoces du cerveau (notamment ceux du système visuel) se transforment en circuits "adultes" au cours de périodes critiques du développement[3]. 
-Depuis 1989, elle est professeure de neurobiologie à l’université Stanford[4]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses travaux visent à comprendre comment les circuits neuronaux  précoces du cerveau (notamment ceux du système visuel) se transforment en circuits "adultes" au cours de périodes critiques du développement. 
+Depuis 1989, elle est professeure de neurobiologie à l’université Stanford. 
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1992: Membre de l'Académie américaine des arts et des sciences
 2016: Prix Kavli avec Eve Marder et Michael Merzenich pour la découverte des mécanismes qui permettent la neuromodulation des réseaux neuronaux, en 2016
